--- a/APM files/140699843/140699843 IMPORT 3 Room Type Rate Plan - deactivation.xlsx
+++ b/APM files/140699843/140699843 IMPORT 3 Room Type Rate Plan - deactivation.xlsx
@@ -1,37 +1,281 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/140699843/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52ED587-1CA4-7E4C-BBF4-FAB4F914027F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="15120" yWindow="680" windowWidth="15120" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$86</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="72">
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>SF ID</t>
+  </si>
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Room Type ID</t>
+  </si>
+  <si>
+    <t>Room Type Code</t>
+  </si>
+  <si>
+    <t>Rate Plan ID</t>
+  </si>
+  <si>
+    <t>Rate Plan Name</t>
+  </si>
+  <si>
+    <t>Expedia Collect Rate Plan Code</t>
+  </si>
+  <si>
+    <t>Hotel Collect Rate Plan Code</t>
+  </si>
+  <si>
+    <t>Rate Plan Status</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>325713142</t>
+  </si>
+  <si>
+    <t>114584747</t>
+  </si>
+  <si>
+    <t>326412819</t>
+  </si>
+  <si>
+    <t>393844357</t>
+  </si>
+  <si>
+    <t>394847711</t>
+  </si>
+  <si>
+    <t>276169827</t>
+  </si>
+  <si>
+    <t>276169829</t>
+  </si>
+  <si>
+    <t>276169831</t>
+  </si>
+  <si>
+    <t>276169833</t>
+  </si>
+  <si>
+    <t>276169861</t>
+  </si>
+  <si>
+    <t>394752499</t>
+  </si>
+  <si>
+    <t>394752511</t>
+  </si>
+  <si>
+    <t>394752512</t>
+  </si>
+  <si>
+    <t>394752513</t>
+  </si>
+  <si>
+    <t>394752514</t>
+  </si>
+  <si>
+    <t>394752515</t>
+  </si>
+  <si>
+    <t>394752516</t>
+  </si>
+  <si>
+    <t>394752517</t>
+  </si>
+  <si>
+    <t>394752518</t>
+  </si>
+  <si>
+    <t>394752519</t>
+  </si>
+  <si>
+    <t>394752521</t>
+  </si>
+  <si>
+    <t>394752522</t>
+  </si>
+  <si>
+    <t>394752523</t>
+  </si>
+  <si>
+    <t>394752524</t>
+  </si>
+  <si>
+    <t>394752525</t>
+  </si>
+  <si>
+    <t>387369986</t>
+  </si>
+  <si>
+    <t>xRateCode</t>
+  </si>
+  <si>
+    <t>xRackHC</t>
+  </si>
+  <si>
+    <t>xCORPHC</t>
+  </si>
+  <si>
+    <t>xNRFHC</t>
+  </si>
+  <si>
+    <t>xPromo NR</t>
+  </si>
+  <si>
+    <t>x39353</t>
+  </si>
+  <si>
+    <t>x39395</t>
+  </si>
+  <si>
+    <t>x38983</t>
+  </si>
+  <si>
+    <t>x39635</t>
+  </si>
+  <si>
+    <t>x37759</t>
+  </si>
+  <si>
+    <t>x38515</t>
+  </si>
+  <si>
+    <t>xRack</t>
+  </si>
+  <si>
+    <t>xCORP</t>
+  </si>
+  <si>
+    <t>xNRF</t>
+  </si>
+  <si>
+    <t>xEOD N</t>
+  </si>
+  <si>
+    <t>xEOD</t>
+  </si>
+  <si>
+    <t>xPromo</t>
+  </si>
+  <si>
+    <t>xPacka</t>
+  </si>
+  <si>
+    <t>xNR PK</t>
+  </si>
+  <si>
+    <t>x32325</t>
+  </si>
+  <si>
+    <t>x38116</t>
+  </si>
+  <si>
+    <t>xStand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xRoom </t>
+  </si>
+  <si>
+    <t>xCorpo</t>
+  </si>
+  <si>
+    <t>xNon R</t>
+  </si>
+  <si>
+    <t>xDistr</t>
+  </si>
+  <si>
+    <t>xFirst</t>
+  </si>
+  <si>
+    <t>xSecon</t>
+  </si>
+  <si>
+    <t>xTwo-B</t>
+  </si>
+  <si>
+    <t>xQueen</t>
+  </si>
+  <si>
+    <t>x2 Que</t>
+  </si>
+  <si>
+    <t>x2 Bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xKing </t>
+  </si>
+  <si>
+    <t>x1 Que</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +290,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,92 +614,2634 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SF ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type ID</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type Code</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rate Plan ID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Rate Plan Name</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Expedia Collect Rate Plan Code</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel Collect Rate Plan Code</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Rate Plan Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Inactive</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>14699843</v>
+      </c>
+      <c r="C2">
+        <v>11979331</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>39964361</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>14699843</v>
+      </c>
+      <c r="C3">
+        <v>11979489</v>
+      </c>
+      <c r="D3">
+        <v>32571315</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>39964459</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>14699843</v>
+      </c>
+      <c r="C4">
+        <v>1113451</v>
+      </c>
+      <c r="D4">
+        <v>32572572</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>39992389</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>14699843</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5">
+        <v>4165761</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>14699843</v>
+      </c>
+      <c r="C6">
+        <v>1211541</v>
+      </c>
+      <c r="D6">
+        <v>32416778</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>14699843</v>
+      </c>
+      <c r="C7">
+        <v>13882198</v>
+      </c>
+      <c r="D7">
+        <v>32451698</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>14699843</v>
+      </c>
+      <c r="C8">
+        <v>1185148</v>
+      </c>
+      <c r="D8">
+        <v>21844627</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>14699843</v>
+      </c>
+      <c r="C9">
+        <v>1185148</v>
+      </c>
+      <c r="D9">
+        <v>21844628</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>14699843</v>
+      </c>
+      <c r="C10">
+        <v>1185148</v>
+      </c>
+      <c r="D10">
+        <v>21844629</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14699843</v>
+      </c>
+      <c r="C11">
+        <v>1185148</v>
+      </c>
+      <c r="D11">
+        <v>2184463</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>14699843</v>
+      </c>
+      <c r="C12">
+        <v>1185148</v>
+      </c>
+      <c r="D12">
+        <v>21844631</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>14699843</v>
+      </c>
+      <c r="C13">
+        <v>1185148</v>
+      </c>
+      <c r="D13">
+        <v>3144529</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <v>38344936</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>14699843</v>
+      </c>
+      <c r="C14">
+        <v>1185148</v>
+      </c>
+      <c r="D14">
+        <v>3144529</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>38344938</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>14699843</v>
+      </c>
+      <c r="C15">
+        <v>1185148</v>
+      </c>
+      <c r="D15">
+        <v>3144529</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15">
+        <v>3834494</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>14699843</v>
+      </c>
+      <c r="C16">
+        <v>1185148</v>
+      </c>
+      <c r="D16">
+        <v>3144529</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>3918114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>14699843</v>
+      </c>
+      <c r="C17">
+        <v>1185148</v>
+      </c>
+      <c r="D17">
+        <v>3144529</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>3918128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>14699843</v>
+      </c>
+      <c r="C18">
+        <v>1185148</v>
+      </c>
+      <c r="D18">
+        <v>3144529</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>14699843</v>
+      </c>
+      <c r="C19">
+        <v>1185148</v>
+      </c>
+      <c r="D19">
+        <v>3144529</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>3947525</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>14699843</v>
+      </c>
+      <c r="C20">
+        <v>1185148</v>
+      </c>
+      <c r="D20">
+        <v>3144529</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20">
+        <v>39475251</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>14699843</v>
+      </c>
+      <c r="C21">
+        <v>1185148</v>
+      </c>
+      <c r="D21">
+        <v>31445291</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21">
+        <v>38344937</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>14699843</v>
+      </c>
+      <c r="C22">
+        <v>1185148</v>
+      </c>
+      <c r="D22">
+        <v>31445291</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22">
+        <v>38344939</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>14699843</v>
+      </c>
+      <c r="C23">
+        <v>1185148</v>
+      </c>
+      <c r="D23">
+        <v>31445291</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23">
+        <v>38344941</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>14699843</v>
+      </c>
+      <c r="C24">
+        <v>1185148</v>
+      </c>
+      <c r="D24">
+        <v>31445291</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24">
+        <v>3918116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>14699843</v>
+      </c>
+      <c r="C25">
+        <v>1185148</v>
+      </c>
+      <c r="D25">
+        <v>31445291</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25">
+        <v>391813</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>14699843</v>
+      </c>
+      <c r="C26">
+        <v>1185148</v>
+      </c>
+      <c r="D26">
+        <v>31445291</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26">
+        <v>39475252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>14699843</v>
+      </c>
+      <c r="C27">
+        <v>1185148</v>
+      </c>
+      <c r="D27">
+        <v>31445291</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27">
+        <v>39475253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>14699843</v>
+      </c>
+      <c r="C28">
+        <v>1185148</v>
+      </c>
+      <c r="D28">
+        <v>31445291</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>39475254</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>14699843</v>
+      </c>
+      <c r="C29">
+        <v>1185148</v>
+      </c>
+      <c r="D29">
+        <v>314453</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29">
+        <v>38344942</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>14699843</v>
+      </c>
+      <c r="C30">
+        <v>1185148</v>
+      </c>
+      <c r="D30">
+        <v>314453</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <v>38344944</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>14699843</v>
+      </c>
+      <c r="C31">
+        <v>1185148</v>
+      </c>
+      <c r="D31">
+        <v>314453</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31">
+        <v>38344946</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>14699843</v>
+      </c>
+      <c r="C32">
+        <v>1185148</v>
+      </c>
+      <c r="D32">
+        <v>314453</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32">
+        <v>3918118</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>14699843</v>
+      </c>
+      <c r="C33">
+        <v>1185148</v>
+      </c>
+      <c r="D33">
+        <v>314453</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33">
+        <v>3918131</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>14699843</v>
+      </c>
+      <c r="C34">
+        <v>1185148</v>
+      </c>
+      <c r="D34">
+        <v>314453</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <v>39475255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>14699843</v>
+      </c>
+      <c r="C35">
+        <v>1185148</v>
+      </c>
+      <c r="D35">
+        <v>314453</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35">
+        <v>39475256</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>14699843</v>
+      </c>
+      <c r="C36">
+        <v>1185148</v>
+      </c>
+      <c r="D36">
+        <v>314453</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36">
+        <v>39475257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>14699843</v>
+      </c>
+      <c r="C37">
+        <v>1185148</v>
+      </c>
+      <c r="D37">
+        <v>3144532</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37">
+        <v>38344943</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>14699843</v>
+      </c>
+      <c r="C38">
+        <v>1185148</v>
+      </c>
+      <c r="D38">
+        <v>3144532</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38">
+        <v>38344945</v>
+      </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>14699843</v>
+      </c>
+      <c r="C39">
+        <v>1185148</v>
+      </c>
+      <c r="D39">
+        <v>3144532</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39">
+        <v>38344947</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>14699843</v>
+      </c>
+      <c r="C40">
+        <v>1185148</v>
+      </c>
+      <c r="D40">
+        <v>3144532</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40">
+        <v>391812</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>14699843</v>
+      </c>
+      <c r="C41">
+        <v>1185148</v>
+      </c>
+      <c r="D41">
+        <v>3144532</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41">
+        <v>3918133</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>14699843</v>
+      </c>
+      <c r="C42">
+        <v>1185148</v>
+      </c>
+      <c r="D42">
+        <v>3144532</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42">
+        <v>39475258</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>14699843</v>
+      </c>
+      <c r="C43">
+        <v>1185148</v>
+      </c>
+      <c r="D43">
+        <v>3144532</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43">
+        <v>39475259</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>14699843</v>
+      </c>
+      <c r="C44">
+        <v>1185148</v>
+      </c>
+      <c r="D44">
+        <v>3144532</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44">
+        <v>39475251</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>14699843</v>
+      </c>
+      <c r="C45">
+        <v>1185148</v>
+      </c>
+      <c r="D45">
+        <v>3144729</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45">
+        <v>383473</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>14699843</v>
+      </c>
+      <c r="C46">
+        <v>1185148</v>
+      </c>
+      <c r="D46">
+        <v>3144729</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46">
+        <v>3834731</v>
+      </c>
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>14699843</v>
+      </c>
+      <c r="C47">
+        <v>1185148</v>
+      </c>
+      <c r="D47">
+        <v>3144729</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47">
+        <v>3834732</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>14699843</v>
+      </c>
+      <c r="C48">
+        <v>1185148</v>
+      </c>
+      <c r="D48">
+        <v>3144729</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48">
+        <v>3918121</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>14699843</v>
+      </c>
+      <c r="C49">
+        <v>1185148</v>
+      </c>
+      <c r="D49">
+        <v>3144729</v>
+      </c>
+      <c r="E49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49">
+        <v>3918134</v>
+      </c>
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>14699843</v>
+      </c>
+      <c r="C50">
+        <v>1185148</v>
+      </c>
+      <c r="D50">
+        <v>3144729</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>14699843</v>
+      </c>
+      <c r="C51">
+        <v>1185148</v>
+      </c>
+      <c r="D51">
+        <v>3144729</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>14699843</v>
+      </c>
+      <c r="C52">
+        <v>1185148</v>
+      </c>
+      <c r="D52">
+        <v>3144729</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>14699843</v>
+      </c>
+      <c r="C53">
+        <v>1185148</v>
+      </c>
+      <c r="D53">
+        <v>3144731</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53">
+        <v>3834735</v>
+      </c>
+      <c r="G53" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>14699843</v>
+      </c>
+      <c r="C54">
+        <v>1185148</v>
+      </c>
+      <c r="D54">
+        <v>3144731</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54">
+        <v>3834736</v>
+      </c>
+      <c r="G54" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>14699843</v>
+      </c>
+      <c r="C55">
+        <v>1185148</v>
+      </c>
+      <c r="D55">
+        <v>3144731</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55">
+        <v>3834737</v>
+      </c>
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>14699843</v>
+      </c>
+      <c r="C56">
+        <v>1185148</v>
+      </c>
+      <c r="D56">
+        <v>3144731</v>
+      </c>
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56">
+        <v>3918123</v>
+      </c>
+      <c r="G56" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>14699843</v>
+      </c>
+      <c r="C57">
+        <v>1185148</v>
+      </c>
+      <c r="D57">
+        <v>3144731</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57">
+        <v>3918136</v>
+      </c>
+      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>14699843</v>
+      </c>
+      <c r="C58">
+        <v>1185148</v>
+      </c>
+      <c r="D58">
+        <v>3144731</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>14699843</v>
+      </c>
+      <c r="C59">
+        <v>1185148</v>
+      </c>
+      <c r="D59">
+        <v>3144731</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>14699843</v>
+      </c>
+      <c r="C60">
+        <v>1185148</v>
+      </c>
+      <c r="D60">
+        <v>3144731</v>
+      </c>
+      <c r="E60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>14699843</v>
+      </c>
+      <c r="C61">
+        <v>1185148</v>
+      </c>
+      <c r="D61">
+        <v>3144732</v>
+      </c>
+      <c r="E61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61">
+        <v>3834742</v>
+      </c>
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>14699843</v>
+      </c>
+      <c r="C62">
+        <v>1185148</v>
+      </c>
+      <c r="D62">
+        <v>3144732</v>
+      </c>
+      <c r="E62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62">
+        <v>3834743</v>
+      </c>
+      <c r="G62" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>14699843</v>
+      </c>
+      <c r="C63">
+        <v>1185148</v>
+      </c>
+      <c r="D63">
+        <v>3144732</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63">
+        <v>3834744</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>14699843</v>
+      </c>
+      <c r="C64">
+        <v>1185148</v>
+      </c>
+      <c r="D64">
+        <v>3144732</v>
+      </c>
+      <c r="E64" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64">
+        <v>3918125</v>
+      </c>
+      <c r="G64" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" t="s">
+        <v>52</v>
+      </c>
+      <c r="J64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>14699843</v>
+      </c>
+      <c r="C65">
+        <v>1185148</v>
+      </c>
+      <c r="D65">
+        <v>3144732</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65">
+        <v>3918141</v>
+      </c>
+      <c r="G65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" t="s">
+        <v>53</v>
+      </c>
+      <c r="J65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>14699843</v>
+      </c>
+      <c r="C66">
+        <v>1185148</v>
+      </c>
+      <c r="D66">
+        <v>3144732</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>14699843</v>
+      </c>
+      <c r="C67">
+        <v>1185148</v>
+      </c>
+      <c r="D67">
+        <v>3144732</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>14699843</v>
+      </c>
+      <c r="C68">
+        <v>1185148</v>
+      </c>
+      <c r="D68">
+        <v>3144732</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>14699843</v>
+      </c>
+      <c r="C69">
+        <v>1185148</v>
+      </c>
+      <c r="D69">
+        <v>3144733</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69">
+        <v>3834745</v>
+      </c>
+      <c r="G69" t="s">
+        <v>60</v>
+      </c>
+      <c r="H69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>14699843</v>
+      </c>
+      <c r="C70">
+        <v>1185148</v>
+      </c>
+      <c r="D70">
+        <v>3144733</v>
+      </c>
+      <c r="E70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70">
+        <v>3834746</v>
+      </c>
+      <c r="G70" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>14699843</v>
+      </c>
+      <c r="C71">
+        <v>1185148</v>
+      </c>
+      <c r="D71">
+        <v>3144733</v>
+      </c>
+      <c r="E71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71">
+        <v>3834747</v>
+      </c>
+      <c r="G71" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>14699843</v>
+      </c>
+      <c r="C72">
+        <v>1185148</v>
+      </c>
+      <c r="D72">
+        <v>3144733</v>
+      </c>
+      <c r="E72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72">
+        <v>3918127</v>
+      </c>
+      <c r="G72" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" t="s">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>14699843</v>
+      </c>
+      <c r="C73">
+        <v>1185148</v>
+      </c>
+      <c r="D73">
+        <v>3144733</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73">
+        <v>3918142</v>
+      </c>
+      <c r="G73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>14699843</v>
+      </c>
+      <c r="C74">
+        <v>1185148</v>
+      </c>
+      <c r="D74">
+        <v>3144733</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74">
+        <v>39475252</v>
+      </c>
+      <c r="G74" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" t="s">
+        <v>54</v>
+      </c>
+      <c r="I74" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>14699843</v>
+      </c>
+      <c r="C75">
+        <v>1185148</v>
+      </c>
+      <c r="D75">
+        <v>3144733</v>
+      </c>
+      <c r="E75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" t="s">
+        <v>55</v>
+      </c>
+      <c r="J75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>14699843</v>
+      </c>
+      <c r="C76">
+        <v>1185148</v>
+      </c>
+      <c r="D76">
+        <v>3144733</v>
+      </c>
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" t="s">
+        <v>56</v>
+      </c>
+      <c r="J76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>14699843</v>
+      </c>
+      <c r="C77">
+        <v>1185148</v>
+      </c>
+      <c r="D77">
+        <v>3144735</v>
+      </c>
+      <c r="E77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77">
+        <v>3834748</v>
+      </c>
+      <c r="G77" t="s">
+        <v>60</v>
+      </c>
+      <c r="H77" t="s">
+        <v>49</v>
+      </c>
+      <c r="I77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>14699843</v>
+      </c>
+      <c r="C78">
+        <v>1185148</v>
+      </c>
+      <c r="D78">
+        <v>3144735</v>
+      </c>
+      <c r="E78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78">
+        <v>3834749</v>
+      </c>
+      <c r="G78" t="s">
+        <v>61</v>
+      </c>
+      <c r="H78" t="s">
+        <v>50</v>
+      </c>
+      <c r="I78" t="s">
+        <v>40</v>
+      </c>
+      <c r="J78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>14699843</v>
+      </c>
+      <c r="C79">
+        <v>1185148</v>
+      </c>
+      <c r="D79">
+        <v>3144735</v>
+      </c>
+      <c r="E79" t="s">
+        <v>71</v>
+      </c>
+      <c r="F79">
+        <v>383475</v>
+      </c>
+      <c r="G79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" t="s">
+        <v>41</v>
+      </c>
+      <c r="J79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>14699843</v>
+      </c>
+      <c r="C80">
+        <v>1185148</v>
+      </c>
+      <c r="D80">
+        <v>3144735</v>
+      </c>
+      <c r="E80" t="s">
+        <v>71</v>
+      </c>
+      <c r="F80">
+        <v>3918129</v>
+      </c>
+      <c r="G80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>14699843</v>
+      </c>
+      <c r="C81">
+        <v>1185148</v>
+      </c>
+      <c r="D81">
+        <v>3144735</v>
+      </c>
+      <c r="E81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81">
+        <v>3918144</v>
+      </c>
+      <c r="G81" t="s">
+        <v>63</v>
+      </c>
+      <c r="H81" t="s">
+        <v>53</v>
+      </c>
+      <c r="J81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>14699843</v>
+      </c>
+      <c r="C82">
+        <v>1185148</v>
+      </c>
+      <c r="D82">
+        <v>3144735</v>
+      </c>
+      <c r="E82" t="s">
+        <v>71</v>
+      </c>
+      <c r="F82" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" t="s">
+        <v>54</v>
+      </c>
+      <c r="I82" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>14699843</v>
+      </c>
+      <c r="C83">
+        <v>1185148</v>
+      </c>
+      <c r="D83">
+        <v>3144735</v>
+      </c>
+      <c r="E83" t="s">
+        <v>71</v>
+      </c>
+      <c r="F83" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s">
+        <v>55</v>
+      </c>
+      <c r="H83" t="s">
+        <v>55</v>
+      </c>
+      <c r="J83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>14699843</v>
+      </c>
+      <c r="C84">
+        <v>1185148</v>
+      </c>
+      <c r="D84">
+        <v>3144735</v>
+      </c>
+      <c r="E84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H84" t="s">
+        <v>56</v>
+      </c>
+      <c r="J84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>14699843</v>
+      </c>
+      <c r="C85">
+        <v>842348</v>
+      </c>
+      <c r="D85">
+        <v>32866259</v>
+      </c>
+      <c r="E85" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>14699843</v>
+      </c>
+      <c r="C86">
+        <v>14348633</v>
+      </c>
+      <c r="D86">
+        <v>32463163</v>
+      </c>
+      <c r="E86" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86">
+        <v>39592368</v>
+      </c>
+      <c r="G86" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" t="s">
+        <v>58</v>
+      </c>
+      <c r="J86" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J86" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>